--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>Started W/out peter</t>
   </si>
@@ -1013,6 +1013,9 @@
   </si>
   <si>
     <t>nearly done - just need form for user to enter further information</t>
+  </si>
+  <si>
+    <t>H+Stu</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1180,15 +1183,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -1196,6 +1190,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1490,29 +1494,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="79.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
+    <row r="1" spans="1:7">
+      <c r="D1" s="19">
+        <v>39713</v>
       </c>
       <c r="E1" t="s">
         <v>55</v>
@@ -1524,177 +1522,175 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>51</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>52</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3">
         <v>16</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A4" s="6" t="s">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3">
-        <v>8</v>
-      </c>
-      <c r="D5" s="10">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="63.75" thickBot="1">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>6</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="32.25" thickBot="1">
       <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="63.75" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3"/>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
+      <c r="D9" s="11">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
+      <c r="A10" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C12" s="3">
-        <v>12</v>
-      </c>
-      <c r="D12" s="12">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1">
       <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>6.1</v>
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3">
+        <v>12</v>
+      </c>
+      <c r="D14" s="12">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A15" s="6" t="s">
-        <v>18</v>
+      <c r="A15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1702,47 +1698,38 @@
       <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A16" s="6" t="s">
+    <row r="18" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A18" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="10">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A18" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -1753,329 +1740,360 @@
       <c r="D18" s="10">
         <v>10</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="10">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A19" s="4" t="s">
+    <row r="21" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A20" s="4" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
         <v>4</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D22" s="11">
         <v>8</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="8" t="s">
+    <row r="23" spans="1:7" ht="15.75">
+      <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="9" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75">
+      <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="9" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75">
+      <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A24" s="6" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A25" s="4" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A26" s="4" t="s">
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A27" s="4" t="s">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3">
         <v>12</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D29" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A28" s="4" t="s">
+    <row r="30" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A29" s="4" t="s">
+    <row r="31" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D31" s="11">
         <v>8</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A30" s="4" t="s">
+    <row r="32" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3">
         <v>3</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D32" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A31" s="17" t="s">
+    <row r="33" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="18">
+      <c r="B33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="15">
         <v>1</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D33" s="15">
         <v>9</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G33" s="13">
         <v>1</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A32" s="4" t="s">
+    <row r="34" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B34" s="3"/>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A35" s="4" t="s">
+    <row r="37" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3">
         <v>2</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="48" thickBot="1">
-      <c r="A36" s="4" t="s">
+    <row r="38" spans="1:8" ht="48" thickBot="1">
+      <c r="A38" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3">
-        <v>3</v>
-      </c>
-      <c r="D36" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A38" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3">
         <v>2</v>
       </c>
-      <c r="D38" s="3" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A39" s="17" t="s">
+    <row r="41" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A41" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="18">
+      <c r="B41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="15">
         <v>2</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D41" s="15">
         <v>8</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G41" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A40" s="4" t="s">
+    <row r="42" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A41" s="4" t="s">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A43" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3">
-        <v>12</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <v>7</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A43" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3">
+        <v>12</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3">
         <v>1</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D44" s="3">
+        <v>7</v>
+      </c>
+      <c r="G44">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
-      <c r="A44" s="1"/>
+    <row r="45" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75">
+      <c r="A46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -1190,6 +1190,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1199,7 +1200,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1496,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1509,7 +1509,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="D1" s="19">
+      <c r="D1" s="16">
         <v>39713</v>
       </c>
       <c r="E1" t="s">
@@ -1531,11 +1531,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1543,9 +1543,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1804,9 +1804,9 @@
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17">
         <v>7</v>
       </c>
     </row>
@@ -1814,25 +1814,25 @@
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1">
       <c r="A27" s="4" t="s">

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Started W/out peter</t>
   </si>
@@ -1016,6 +1016,12 @@
   </si>
   <si>
     <t>H+Stu</t>
+  </si>
+  <si>
+    <t>M+Eric</t>
+  </si>
+  <si>
+    <t>Sori+Stu</t>
   </si>
 </sst>
 </file>
@@ -1494,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G45" sqref="A45:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1522,7 +1528,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7">
+      <c r="D2" s="16">
+        <v>39720</v>
+      </c>
       <c r="E2" t="s">
         <v>59</v>
       </c>
@@ -1530,89 +1539,86 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+      <c r="D3" s="16">
+        <v>39704</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="3" t="s">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="3">
         <v>16</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
-        <v>4</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="32.25" thickBot="1">
       <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
         <v>8</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="10">
         <v>9</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="63.75" thickBot="1">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:7" ht="63.75" thickBot="1">
+      <c r="A9" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -1620,116 +1626,113 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1">
       <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <v>4</v>
-      </c>
-      <c r="D13" s="7">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1">
       <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>6.1</v>
+        <v>12</v>
+      </c>
+      <c r="D15" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1">
       <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="10">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1">
       <c r="A18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -1744,356 +1747,373 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32.25" thickBot="1">
+    <row r="19" spans="1:7" ht="16.5" thickBot="1">
       <c r="A19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A20" s="6" t="s">
+      <c r="D20" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D21" s="10">
         <v>10</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3">
         <v>4</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>8</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
-      <c r="A23" s="8" t="s">
+    <row r="24" spans="1:7" ht="15.75">
+      <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75">
-      <c r="A24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:7" ht="15.75">
+      <c r="A26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" thickBot="1">
       <c r="A28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1">
       <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3">
-        <v>12</v>
-      </c>
-      <c r="D29" s="3">
-        <v>3</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" thickBot="1">
       <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3">
+        <v>12</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3">
         <v>1</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>8</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3">
         <v>3</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A33" s="14" t="s">
+    <row r="34" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="15">
+      <c r="B34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="15">
         <v>1</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D34" s="15">
         <v>9</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>1</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" thickBot="1">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
       <c r="D35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" thickBot="1">
       <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3">
         <v>1</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D37" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3">
         <v>2</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="48" thickBot="1">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:8" ht="48" thickBot="1">
+      <c r="A39" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A39" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" thickBot="1">
       <c r="A40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3">
         <v>2</v>
       </c>
-      <c r="D40" s="3" t="s">
+    </row>
+    <row r="41" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A41" s="14" t="s">
+    <row r="42" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A42" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="15">
+      <c r="B42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="15">
         <v>2</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D42" s="15">
         <v>8</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" thickBot="1">
       <c r="A43" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="3">
-        <v>12</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="C43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:8" ht="16.5" thickBot="1">
       <c r="A44" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3">
-        <v>7</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.5" thickBot="1">
       <c r="A45" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="3">
+        <v>7</v>
+      </c>
+      <c r="G45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75">
-      <c r="A46" s="1"/>
+    <row r="46" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75">
+      <c r="A47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>Started W/out peter</t>
   </si>
@@ -1022,6 +1022,15 @@
   </si>
   <si>
     <t>Sori+Stu</t>
+  </si>
+  <si>
+    <t>Sori+Sher</t>
+  </si>
+  <si>
+    <t>Eric+Stu</t>
+  </si>
+  <si>
+    <t>M+Hugs</t>
   </si>
 </sst>
 </file>
@@ -1500,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="A45:G45"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1539,7 +1548,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7">
       <c r="D3" s="16">
         <v>39704</v>
       </c>
@@ -1550,89 +1559,89 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+      <c r="D4" s="16">
+        <v>39711</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="3" t="s">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="3">
         <v>16</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
-        <v>4</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="32.25" thickBot="1">
       <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D9" s="10">
         <v>9</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="63.75" thickBot="1">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:7" ht="63.75" thickBot="1">
+      <c r="A10" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -1640,116 +1649,113 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1">
       <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <v>4</v>
-      </c>
-      <c r="D14" s="7">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
-        <v>12</v>
-      </c>
-      <c r="D15" s="12">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1">
       <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>6.1</v>
+        <v>12</v>
+      </c>
+      <c r="D16" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1">
       <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="10">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1">
       <c r="A19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
@@ -1764,356 +1770,373 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32.25" thickBot="1">
+    <row r="20" spans="1:7" ht="16.5" thickBot="1">
       <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="10">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
         <v>4</v>
       </c>
-      <c r="D20" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="6" t="s">
+      <c r="D21" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <v>10</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
         <v>4</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>8</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
-      <c r="A24" s="8" t="s">
+    <row r="25" spans="1:7" ht="15.75">
+      <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75">
-      <c r="A25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:7" ht="15.75">
+      <c r="A27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" thickBot="1">
       <c r="A30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3">
-        <v>12</v>
-      </c>
-      <c r="D30" s="3">
-        <v>3</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" thickBot="1">
       <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
+        <v>12</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3">
         <v>1</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>8</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3">
         <v>3</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A34" s="14" t="s">
+    <row r="35" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A35" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="B35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="15">
         <v>1</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D35" s="15">
         <v>9</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>1</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" thickBot="1">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
       <c r="D36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" thickBot="1">
       <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3">
         <v>1</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D38" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3">
         <v>2</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="48" thickBot="1">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:8" ht="48" thickBot="1">
+      <c r="A40" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3">
-        <v>3</v>
-      </c>
-      <c r="D39" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A40" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.5" thickBot="1">
       <c r="A41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3">
         <v>2</v>
       </c>
-      <c r="D41" s="3" t="s">
+    </row>
+    <row r="42" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A42" s="14" t="s">
+    <row r="43" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A43" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="15">
+      <c r="B43" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="15">
         <v>2</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D43" s="15">
         <v>8</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:8" ht="16.5" thickBot="1">
       <c r="A44" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="3">
-        <v>12</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="C44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="16.5" thickBot="1">
       <c r="A45" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B45" s="3"/>
       <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
-        <v>7</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5" thickBot="1">
       <c r="A46" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="3">
+        <v>7</v>
+      </c>
+      <c r="G46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="1"/>
+    <row r="47" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75">
+      <c r="A48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>Started W/out peter</t>
   </si>
@@ -1031,6 +1031,15 @@
   </si>
   <si>
     <t>M+Hugs</t>
+  </si>
+  <si>
+    <t>Sher + Eric</t>
+  </si>
+  <si>
+    <t>Hugs+Sori</t>
+  </si>
+  <si>
+    <t>M+Stu</t>
   </si>
 </sst>
 </file>
@@ -1509,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1550,7 +1559,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="16">
-        <v>39704</v>
+        <v>39734</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -1559,9 +1568,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+    <row r="4" spans="1:7">
       <c r="D4" s="16">
-        <v>39711</v>
+        <v>39741</v>
       </c>
       <c r="E4" t="s">
         <v>62</v>
@@ -1573,189 +1582,184 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:7">
+      <c r="D5" s="16">
+        <v>39748</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="3" t="s">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3">
         <v>16</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A8" s="6" t="s">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="63.75" thickBot="1">
-      <c r="A10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6</v>
-      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="32.25" thickBot="1">
       <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="63.75" thickBot="1">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3"/>
+      <c r="D12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
+      <c r="D13" s="11">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
+      <c r="A14" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1">
       <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C16" s="3">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6.1</v>
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3">
+        <v>12</v>
+      </c>
+      <c r="D18" s="12">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
+      <c r="A19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
@@ -1763,47 +1767,38 @@
       <c r="C19" s="3">
         <v>2</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10">
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="10">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3">
-        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1">
       <c r="A22" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
@@ -1814,329 +1809,360 @@
       <c r="D22" s="10">
         <v>10</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A23" s="4" t="s">
+    <row r="25" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A24" s="4" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
         <v>4</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D26" s="11">
         <v>8</v>
       </c>
-      <c r="G24">
+      <c r="G26">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
-      <c r="A25" s="8" t="s">
+    <row r="27" spans="1:7" ht="15.75">
+      <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75">
-      <c r="A26" s="9" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75">
+      <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75">
-      <c r="A27" s="9" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75">
+      <c r="A29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A28" s="6" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="3"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" thickBot="1">
       <c r="A31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3">
-        <v>12</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" thickBot="1">
       <c r="A32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="32.25" thickBot="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickBot="1">
       <c r="A33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="11">
-        <v>8</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" thickBot="1">
       <c r="A34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A35" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3">
         <v>1</v>
       </c>
-      <c r="D35" s="15">
-        <v>9</v>
-      </c>
-      <c r="G35" s="13">
+      <c r="D35" s="11">
+        <v>8</v>
+      </c>
+      <c r="G35">
         <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" thickBot="1">
       <c r="A36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A37" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="15">
         <v>1</v>
       </c>
-      <c r="D36" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3">
+      <c r="D37" s="15">
+        <v>9</v>
+      </c>
+      <c r="G37" s="13">
         <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1">
       <c r="A38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B38" s="3"/>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A39" s="4" t="s">
+    <row r="41" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3">
         <v>2</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="48" thickBot="1">
-      <c r="A40" s="4" t="s">
+    <row r="42" spans="1:8" ht="48" thickBot="1">
+      <c r="A42" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3">
-        <v>3</v>
-      </c>
-      <c r="D40" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3">
-        <v>4</v>
-      </c>
-      <c r="D41" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A42" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
-        <v>2</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A43" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="15">
-        <v>2</v>
-      </c>
-      <c r="D43" s="15">
-        <v>8</v>
-      </c>
-      <c r="G43" s="13">
+      <c r="A43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" thickBot="1">
       <c r="A44" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="3"/>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3">
-        <v>12</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>48</v>
+      <c r="A45" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="15">
+        <v>2</v>
+      </c>
+      <c r="D45" s="15">
+        <v>8</v>
+      </c>
+      <c r="G45" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5" thickBot="1">
       <c r="A46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3">
-        <v>7</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="16.5" thickBot="1">
       <c r="A47" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3">
         <v>1</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D48" s="3">
+        <v>7</v>
+      </c>
+      <c r="G48">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="1"/>
+    <row r="49" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75">
+      <c r="A50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>Started W/out peter</t>
   </si>
@@ -1040,6 +1040,18 @@
   </si>
   <si>
     <t>M+Stu</t>
+  </si>
+  <si>
+    <t>Eric+Sori</t>
+  </si>
+  <si>
+    <t>Floater</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>H+Sher</t>
   </si>
 </sst>
 </file>
@@ -1518,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1529,10 +1541,10 @@
     <col min="1" max="1" width="79.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="D1" s="16">
         <v>39713</v>
       </c>
@@ -1546,7 +1558,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="D2" s="16">
         <v>39720</v>
       </c>
@@ -1557,7 +1569,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="D3" s="16">
         <v>39734</v>
       </c>
@@ -1568,7 +1580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="D4" s="16">
         <v>39741</v>
       </c>
@@ -1582,7 +1594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="D5" s="16">
         <v>39748</v>
       </c>
@@ -1596,92 +1608,98 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17" t="s">
+    <row r="6" spans="1:8">
+      <c r="D6" s="16">
+        <v>39755</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="3" t="s">
+    <row r="9" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="4" t="s">
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="3">
         <v>16</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A10" s="6" t="s">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A11" s="6" t="s">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A12" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8</v>
-      </c>
-      <c r="D11" s="10">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="63.75" thickBot="1">
-      <c r="A12" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="32.25" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="63.75" thickBot="1">
       <c r="A13" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
@@ -1689,116 +1707,113 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1">
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="32.25" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
         <v>4</v>
-      </c>
-      <c r="D17" s="7">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3">
-        <v>12</v>
-      </c>
-      <c r="D18" s="12">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1">
       <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6.1</v>
+        <v>12</v>
+      </c>
+      <c r="D19" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickBot="1">
       <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="10">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1">
       <c r="A22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
@@ -1813,356 +1828,373 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="32.25" thickBot="1">
+    <row r="23" spans="1:7" ht="16.5" thickBot="1">
       <c r="A23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32.25" thickBot="1">
       <c r="A24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <v>10</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>4</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>8</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
-      <c r="A27" s="8" t="s">
+    <row r="28" spans="1:7" ht="15.75">
+      <c r="A28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75">
-      <c r="A28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:7" ht="15.75">
+      <c r="A30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" thickBot="1">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" thickBot="1">
       <c r="A33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3">
-        <v>12</v>
-      </c>
-      <c r="D33" s="3">
-        <v>3</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" thickBot="1">
       <c r="A34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3">
+        <v>12</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A36" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="11">
-        <v>8</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A36" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3">
         <v>3</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D37" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A37" s="14" t="s">
+    <row r="38" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B38" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C38" s="15">
         <v>1</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D38" s="15">
         <v>9</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>1</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1">
       <c r="A39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
       <c r="D39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" thickBot="1">
       <c r="A40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A41" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A41" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3">
         <v>2</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="48" thickBot="1">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:8" ht="48" thickBot="1">
+      <c r="A43" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3">
-        <v>3</v>
-      </c>
-      <c r="D42" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A43" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" thickBot="1">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3">
         <v>2</v>
       </c>
-      <c r="D44" s="3" t="s">
+    </row>
+    <row r="45" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A45" s="14" t="s">
+    <row r="46" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A46" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B46" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C46" s="15">
         <v>2</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D46" s="15">
         <v>8</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="16.5" thickBot="1">
       <c r="A47" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="3">
-        <v>12</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="C47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:8" ht="16.5" thickBot="1">
       <c r="A48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3">
+        <v>12</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3">
-        <v>7</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A49" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="3"/>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="3">
+        <v>7</v>
+      </c>
+      <c r="G49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75">
+      <c r="A51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>Started W/out peter</t>
   </si>
@@ -1045,13 +1045,28 @@
     <t>Eric+Sori</t>
   </si>
   <si>
-    <t>Floater</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
     <t>H+Sher</t>
+  </si>
+  <si>
+    <t>Team 4</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>30. Old FireStarter Changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    a. Add Support for Firebird Reverse Engineering</t>
+  </si>
+  <si>
+    <t>M+P</t>
+  </si>
+  <si>
+    <t>Eric+Brett</t>
   </si>
 </sst>
 </file>
@@ -1183,9 +1198,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1230,11 +1244,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1530,671 +1556,759 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="79.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="D1" s="16">
+    <row r="1" spans="1:9">
+      <c r="E1" s="15">
         <v>39713</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="D2" s="16">
+    <row r="2" spans="1:9">
+      <c r="E2" s="15">
         <v>39720</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="D3" s="16">
+    <row r="3" spans="1:9">
+      <c r="E3" s="15">
         <v>39734</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>61</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="D4" s="16">
+    <row r="4" spans="1:9">
+      <c r="E4" s="15">
         <v>39741</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="D5" s="16">
+    <row r="5" spans="1:9">
+      <c r="E5" s="15">
         <v>39748</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>65</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="D6" s="16">
+    <row r="6" spans="1:9">
+      <c r="E6" s="15">
         <v>39755</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>68</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>67</v>
-      </c>
-      <c r="G6" t="s">
-        <v>71</v>
       </c>
       <c r="H6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1">
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17" t="s">
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="E7" s="15">
+        <v>39762</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
+      <c r="A9" s="18"/>
+      <c r="B9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="3" t="s">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
         <v>51</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G10" t="s">
         <v>52</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H10" t="s">
         <v>53</v>
       </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A10" s="4" t="s">
+      <c r="I10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2">
         <v>16</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A11" s="6" t="s">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="32.25" thickBot="1">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+      <c r="B12" s="21"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A12" s="6" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="32.25" thickBot="1">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D13" s="2">
         <v>8</v>
       </c>
-      <c r="D12" s="10">
+      <c r="E13" s="9">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="F13">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="63.75" thickBot="1">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:9" ht="63.75" thickBot="1">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E14" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:9" ht="32.25" thickBot="1">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="11">
+      <c r="E15" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E18" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
+      <c r="E19" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>12</v>
       </c>
-      <c r="D19" s="12">
+      <c r="E20" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D21" s="2">
         <v>2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E21" s="2">
         <v>6.1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="D22" s="10">
+      <c r="E23" s="9">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="G23">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D24" s="2">
         <v>2</v>
       </c>
-      <c r="D23" s="10">
+      <c r="E24" s="9">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="G24">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D25" s="2">
         <v>4</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E25" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D26" s="2">
         <v>2</v>
       </c>
-      <c r="D25" s="10">
+      <c r="E26" s="9">
         <v>10</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="D27" s="11">
+      <c r="E28" s="10">
         <v>8</v>
       </c>
-      <c r="G27">
+      <c r="H28">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:8" ht="15.75">
+      <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75">
-      <c r="A29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75">
-      <c r="A30" s="9" t="s">
+      <c r="E29" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75">
+      <c r="A30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75">
+      <c r="A31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="19"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A32" s="4" t="s">
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A33" s="4" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A34" s="4" t="s">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3">
+      <c r="B35" s="4"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
         <v>12</v>
       </c>
-      <c r="D34" s="3">
+      <c r="E35" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D37" s="2">
         <v>1</v>
       </c>
-      <c r="D36" s="11">
+      <c r="E37" s="10">
         <v>8</v>
       </c>
-      <c r="G36">
+      <c r="H37">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D38" s="2">
         <v>3</v>
       </c>
-      <c r="D37" s="3">
+      <c r="E38" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A38" s="14" t="s">
+    <row r="39" spans="1:8" ht="79.5" thickBot="1">
+      <c r="A39" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B39" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="15">
+      <c r="D39" s="14">
         <v>1</v>
       </c>
-      <c r="D38" s="15">
+      <c r="E39" s="14">
         <v>9</v>
       </c>
-      <c r="G38" s="13">
+      <c r="H39" s="12">
         <v>1</v>
       </c>
-      <c r="H38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A39" s="4" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
         <v>1</v>
       </c>
-      <c r="D39" s="3">
+      <c r="E40" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D42" s="2">
         <v>1</v>
       </c>
-      <c r="D41" s="3">
+      <c r="E42" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D43" s="2">
         <v>2</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="48" thickBot="1">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:8" ht="48" thickBot="1">
+      <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
         <v>3</v>
       </c>
-      <c r="D43" s="3">
+      <c r="E44" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2">
         <v>4</v>
       </c>
-      <c r="D44" s="3">
+      <c r="E45" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2">
         <v>2</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A46" s="14" t="s">
+    <row r="47" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A47" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="15">
+      <c r="D47" s="14">
         <v>2</v>
       </c>
-      <c r="D46" s="15">
+      <c r="E47" s="14">
         <v>8</v>
       </c>
-      <c r="G46" s="13">
+      <c r="H47" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A48" s="4" t="s">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3">
+      <c r="B49" s="4"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2">
         <v>12</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D50" s="2">
         <v>1</v>
       </c>
-      <c r="D49" s="3">
+      <c r="E50" s="2">
         <v>7</v>
       </c>
-      <c r="G49">
+      <c r="H50">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3">
+      <c r="B51" s="4"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2">
         <v>1</v>
       </c>
-      <c r="D50" s="3">
+      <c r="E51" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75">
-      <c r="A51" s="1"/>
+    <row r="52" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>7</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
   <si>
     <t>Started W/out peter</t>
   </si>
@@ -1067,6 +1067,12 @@
   </si>
   <si>
     <t>Eric+Brett</t>
+  </si>
+  <si>
+    <t>Sori+E</t>
+  </si>
+  <si>
+    <t>M+B</t>
   </si>
 </sst>
 </file>
@@ -1247,6 +1253,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1255,12 +1267,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1556,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1669,231 +1675,227 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1">
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="18"/>
-      <c r="B9" s="16" t="s">
+    <row r="8" spans="1:9">
+      <c r="E8" s="15">
+        <v>39769</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
+      <c r="A10" s="20"/>
+      <c r="B10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D10" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="2" t="s">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>52</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2">
         <v>16</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="32.25" thickBot="1">
-      <c r="A12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>4</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="32.25" thickBot="1">
       <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="32.25" thickBot="1">
+      <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2">
-        <v>8</v>
-      </c>
-      <c r="E13" s="9">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="63.75" thickBot="1">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="32.25" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="9">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="63.75" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1">
+      <c r="E15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="32.25" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
         <v>4</v>
-      </c>
-      <c r="E19" s="6">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" thickBot="1">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>12</v>
-      </c>
-      <c r="E20" s="11">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="E20" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickBot="1">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>6.1</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="11">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" thickBot="1">
       <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" s="9">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="18"/>
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1907,374 +1909,379 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="32.25" thickBot="1">
+    <row r="25" spans="1:8" ht="16.5" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="2">
-        <v>4</v>
-      </c>
-      <c r="E25" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32.25" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2">
         <v>2</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>10</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E29" s="10">
         <v>8</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:8" ht="15.75">
+      <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18">
+      <c r="B30" s="7"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75">
+      <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="16.5" thickBot="1">
       <c r="A35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2">
-        <v>12</v>
-      </c>
-      <c r="E35" s="2">
-        <v>3</v>
-      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" thickBot="1">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2">
+        <v>12</v>
+      </c>
       <c r="E36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A38" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10">
-        <v>8</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A38" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2">
         <v>3</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E39" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="79.5" thickBot="1">
-      <c r="A39" s="13" t="s">
+    <row r="40" spans="1:8" ht="79.5" thickBot="1">
+      <c r="A40" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B40" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <v>1</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="14">
         <v>9</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H40" s="12">
         <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.5" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
       <c r="E41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" thickBot="1">
       <c r="A42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A43" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A43" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2">
         <v>2</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="48" thickBot="1">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:8" ht="48" thickBot="1">
+      <c r="A45" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2">
-        <v>3</v>
-      </c>
-      <c r="E44" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A45" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2">
         <v>2</v>
       </c>
-      <c r="E46" s="2" t="s">
+    </row>
+    <row r="47" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A47" s="13" t="s">
+    <row r="48" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A48" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="14" t="s">
+      <c r="B48" s="19"/>
+      <c r="C48" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <v>2</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E48" s="14">
         <v>8</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H48" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="2">
-        <v>12</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="D49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" thickBot="1">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C50" s="2"/>
       <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
-        <v>7</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" thickBot="1">
       <c r="A51" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D51" s="2">
         <v>1</v>
       </c>
       <c r="E51" s="2">
+        <v>7</v>
+      </c>
+      <c r="H51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" thickBot="1">
       <c r="A52" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="2"/>
@@ -2287,7 +2294,7 @@
     </row>
     <row r="53" spans="1:9" ht="16.5" thickBot="1">
       <c r="A53" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="2"/>
@@ -2295,20 +2302,33 @@
         <v>1</v>
       </c>
       <c r="E53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
         <v>7</v>
       </c>
-      <c r="I53">
+      <c r="I54">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Started W/out peter</t>
   </si>
@@ -428,7 +428,53 @@
   </si>
   <si>
     <r>
-      <t>9.</t>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FindBy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Create classes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
     </r>
     <r>
       <rPr>
@@ -446,12 +492,35 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Refactor Panel Factory</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.</t>
+      <t>Generate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Investigate LINQ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11.</t>
     </r>
     <r>
       <rPr>
@@ -469,81 +538,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>FindBy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Create classes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Generate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Investigate LINQ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11.</t>
+      <t>Gen/Dynamically define search criteria in ClassDefs for a Grid (dep 1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12.</t>
     </r>
     <r>
       <rPr>
@@ -561,12 +561,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Gen/Dynamically define search criteria in ClassDefs for a Grid (dep 1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>12.</t>
+      <t>Develop a set of UI test utils</t>
+    </r>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <r>
+      <t>13.</t>
     </r>
     <r>
       <rPr>
@@ -584,15 +587,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Develop a set of UI test utils</t>
-    </r>
-  </si>
-  <si>
-    <t>ongoing</t>
-  </si>
-  <si>
-    <r>
-      <t>13.</t>
+      <t>Study WPF, Silverlight etc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.</t>
     </r>
     <r>
       <rPr>
@@ -610,12 +610,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Study WPF, Silverlight etc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>14.</t>
+      <t>Define Triggers in ClassDefs (dep on 9)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15.</t>
     </r>
     <r>
       <rPr>
@@ -633,12 +633,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Define Triggers in ClassDefs (dep on 9)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>15.</t>
+      <t>Mutable Composite primary key for Readonly and editable grid. Sample app using Northwind.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16.</t>
     </r>
     <r>
       <rPr>
@@ -656,12 +656,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Mutable Composite primary key for Readonly and editable grid. Sample app using Northwind.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>16.</t>
+      <t>Globalisation of all error messages.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>17.</t>
     </r>
     <r>
       <rPr>
@@ -679,12 +679,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Globalisation of all error messages.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>17.</t>
+      <t>Email error messages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18.</t>
     </r>
     <r>
       <rPr>
@@ -702,12 +702,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Email error messages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>18.</t>
+      <t>Have option to do an SDI interface.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19.</t>
     </r>
     <r>
       <rPr>
@@ -725,12 +725,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Have option to do an SDI interface.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>19.</t>
+      <t>Allow multiple class defs for a project.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20.</t>
     </r>
     <r>
       <rPr>
@@ -748,12 +748,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Allow multiple class defs for a project.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>20.</t>
+      <t>Allow bulk deleting of rows in a grid.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>21.</t>
     </r>
     <r>
       <rPr>
@@ -771,12 +771,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Allow bulk deleting of rows in a grid.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>21.</t>
+      <t>Create functionality to allow the object and collection to dump its state. See Serialisable</t>
+    </r>
+  </si>
+  <si>
+    <t>Dep 25</t>
+  </si>
+  <si>
+    <r>
+      <t>22.</t>
     </r>
     <r>
       <rPr>
@@ -794,15 +797,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Create functionality to allow the object and collection to dump its state. See Serialisable</t>
-    </r>
-  </si>
-  <si>
-    <t>Dep 25</t>
-  </si>
-  <si>
-    <r>
-      <t>22.</t>
+      <t>Create Display objects i.e. object that can load based on any defined SQL load (allow summing, counting and other aggregate functions) and cannot be edited. This will replace loading these through a view.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>23.</t>
     </r>
     <r>
       <rPr>
@@ -820,12 +820,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Create Display objects i.e. object that can load based on any defined SQL load (allow summing, counting and other aggregate functions) and cannot be edited. This will replace loading these through a view.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>23.</t>
+      <t>Allow the plugging in of any Database mapping logic for both reading and writing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>24.</t>
     </r>
     <r>
       <rPr>
@@ -843,12 +843,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Allow the plugging in of any Database mapping logic for both reading and writing.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>24.</t>
+      <t>Create N-Tier Demo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>25.</t>
     </r>
     <r>
       <rPr>
@@ -866,12 +866,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Create N-Tier Demo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>25.</t>
+      <t>Serialisable Business objects and collections.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>26.</t>
     </r>
     <r>
       <rPr>
@@ -889,12 +889,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Serialisable Business objects and collections.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>26.</t>
+      <t>Compact framework investigation</t>
+    </r>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <r>
+      <t>27.</t>
     </r>
     <r>
       <rPr>
@@ -912,15 +915,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Compact framework investigation</t>
-    </r>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <r>
-      <t>27.</t>
+      <t>Reports (dep 22)</t>
+    </r>
+  </si>
+  <si>
+    <t>Dep 22</t>
+  </si>
+  <si>
+    <r>
+      <t>28.</t>
     </r>
     <r>
       <rPr>
@@ -938,15 +941,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Reports (dep 22)</t>
-    </r>
-  </si>
-  <si>
-    <t>Dep 22</t>
-  </si>
-  <si>
-    <r>
-      <t>28.</t>
+      <t>Support generation of VB.Net code.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>29.</t>
     </r>
     <r>
       <rPr>
@@ -964,96 +964,10 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Support generation of VB.Net code.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>29.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Collapsible Panel</t>
     </r>
   </si>
   <si>
-    <t>Team 1</t>
-  </si>
-  <si>
-    <t>Team 2</t>
-  </si>
-  <si>
-    <t>Team 3</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>B+H</t>
-  </si>
-  <si>
-    <t>P+Stu</t>
-  </si>
-  <si>
-    <t>M+Sherwin</t>
-  </si>
-  <si>
-    <t>nearly done - just need form for user to enter further information</t>
-  </si>
-  <si>
-    <t>H+Stu</t>
-  </si>
-  <si>
-    <t>M+Eric</t>
-  </si>
-  <si>
-    <t>Sori+Stu</t>
-  </si>
-  <si>
-    <t>Sori+Sher</t>
-  </si>
-  <si>
-    <t>Eric+Stu</t>
-  </si>
-  <si>
-    <t>M+Hugs</t>
-  </si>
-  <si>
-    <t>Sher + Eric</t>
-  </si>
-  <si>
-    <t>Hugs+Sori</t>
-  </si>
-  <si>
-    <t>M+Stu</t>
-  </si>
-  <si>
-    <t>Eric+Sori</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>H+Sher</t>
-  </si>
-  <si>
-    <t>Team 4</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -1063,23 +977,14 @@
     <t xml:space="preserve">    a. Add Support for Firebird Reverse Engineering</t>
   </si>
   <si>
-    <t>M+P</t>
-  </si>
-  <si>
-    <t>Eric+Brett</t>
-  </si>
-  <si>
-    <t>Sori+E</t>
-  </si>
-  <si>
-    <t>M+B</t>
+    <t>9.      Refactor Panel Factory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,14 +1005,35 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1130,6 +1056,26 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1201,10 +1147,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1221,9 +1171,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
@@ -1236,10 +1183,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
@@ -1268,8 +1211,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Accent3" xfId="4" builtinId="37"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1562,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1577,582 +1548,543 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="E1" s="15">
-        <v>39713</v>
-      </c>
-      <c r="F1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="E2" s="15">
-        <v>39720</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="E3" s="15">
-        <v>39734</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="E4" s="15">
-        <v>39741</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="E5" s="15">
-        <v>39748</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="E6" s="15">
-        <v>39755</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="E7" s="15">
-        <v>39762</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="E8" s="15">
-        <v>39769</v>
-      </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1">
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="20"/>
-      <c r="B10" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="20" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="17"/>
+      <c r="B2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="2" t="s">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1">
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="32.25" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="32.25" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="63.75" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="32.25" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" thickBot="1">
       <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="32.25" thickBot="1">
-      <c r="A13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="18"/>
+      <c r="E12" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="32.25" thickBot="1">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="2">
-        <v>8</v>
-      </c>
-      <c r="E14" s="9">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="63.75" thickBot="1">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="32.25" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="25">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="18"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2"/>
+      <c r="E17" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="32.25" thickBot="1">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="32.25" thickBot="1">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A21" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="21">
         <v>4</v>
       </c>
-      <c r="E20" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>12</v>
-      </c>
-      <c r="E21" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="9">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1">
+      <c r="E21" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75">
+      <c r="A24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="2">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="18"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="2">
-        <v>2</v>
-      </c>
-      <c r="E27" s="9">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="32.25" thickBot="1">
+      <c r="D27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" thickBot="1">
       <c r="A28" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1">
+      <c r="D28" s="2">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" thickBot="1">
       <c r="A29" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2">
-        <v>4</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="32.25" thickBot="1">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="20">
         <v>8</v>
       </c>
-      <c r="H29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" thickBot="1">
+    </row>
+    <row r="31" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" thickBot="1">
+      <c r="E34" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" thickBot="1">
       <c r="A35" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" thickBot="1">
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="32.25" thickBot="1">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D36" s="2">
-        <v>12</v>
-      </c>
-      <c r="E36" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="48" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="32.25" thickBot="1">
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10">
+        <v>4</v>
+      </c>
+      <c r="E38" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A40" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="11">
+        <v>2</v>
+      </c>
+      <c r="E40" s="11">
         <v>8</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="79.5" thickBot="1">
-      <c r="A40" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="14">
-        <v>1</v>
-      </c>
-      <c r="E40" s="14">
-        <v>9</v>
-      </c>
-      <c r="H40" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" thickBot="1">
+    </row>
+    <row r="41" spans="1:5" ht="16.5" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" thickBot="1">
+      <c r="D41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" thickBot="1">
+      <c r="D42" s="2">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="2" t="s">
@@ -2162,176 +2094,59 @@
         <v>1</v>
       </c>
       <c r="E43" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="32.25" thickBot="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="48" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2">
-        <v>4</v>
-      </c>
-      <c r="E46" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A48" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="14">
-        <v>2</v>
-      </c>
-      <c r="E48" s="14">
-        <v>8</v>
-      </c>
-      <c r="H48" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A50" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2">
-        <v>12</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="2">
         <v>1</v>
       </c>
-      <c r="E51" s="2">
-        <v>7</v>
-      </c>
-      <c r="H51">
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A46" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A52" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A53" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A54" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2">
-        <v>7</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
+      <c r="E46" s="24">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="20895" windowHeight="12210"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>Started W/out peter</t>
   </si>
@@ -54,6 +54,127 @@
   </si>
   <si>
     <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Model Business Objects. I.e. Build easy to use – user interfaces using Habanero Business Objects. Use a normal database to start.</t>
+    </r>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <r>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Track what has been generated and what has been changed s.t. can control generation i.e. if the class has been generated then don’t regenerate also need to be able to do this for relationships or properties. I.e. if you override the relationship behaviour then want to be able to not regenerate.</t>
+    </r>
+  </si>
+  <si>
+    <t>9 dep b</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Reorganise Habanero.Base</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Check For Duplicates in same transaction as commit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Generate Forms</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>a.</t>
     </r>
     <r>
@@ -72,7 +193,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Reverse Engineering from Database. Pluggable such that can extend to any database easily. Need to be able</t>
+      <t>Simple CRUD Grid - Read only Grid, Editable Grid</t>
     </r>
   </si>
   <si>
@@ -95,11 +216,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Model Business Objects. I.e. Build easy to use – user interfaces using Habanero Business Objects. Use a normal database to start.</t>
-    </r>
-  </si>
-  <si>
-    <t>Y</t>
+      <t>CRUD Editor Form – Selector and BO Editor.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -121,7 +239,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Track what has been generated and what has been changed s.t. can control generation i.e. if the class has been generated then don’t regenerate also need to be able to do this for relationships or properties. I.e. if you override the relationship behaviour then want to be able to not regenerate.</t>
+      <t>Parent Child Form (Master – Child). Select master (possibly edit) get list of children select child edit. E.g. Customer – Orders.</t>
     </r>
   </si>
   <si>
@@ -144,12 +262,35 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Generate to code. Must be written such that can plug other templates into generator.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>e.</t>
+      <t>Generate tests</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FindBy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
     </r>
     <r>
       <rPr>
@@ -167,15 +308,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Save the Business Model to XML instead of a database</t>
-    </r>
-  </si>
-  <si>
-    <t>9 dep b</t>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
+      <t>Create classes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
     </r>
     <r>
       <rPr>
@@ -193,127 +331,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Reorganise Habanero.Base</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Check For Duplicates in same transaction as commit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lookups Define philosophy and rework</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Relationships define philosophy and implement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Generate Tests for BO’s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Generate Forms</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
+      <t>Generate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c.</t>
     </r>
     <r>
       <rPr>
@@ -331,104 +354,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Simple CRUD Grid - Read only Grid, Editable Grid</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CRUD Editor Form – Selector and BO Editor.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Parent Child Form (Master – Child). Select master (possibly edit) get list of children select child edit. E.g. Customer – Orders.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Generate tests</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Generate Database Structure and manage versions of application with different databases. (dep 1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.</t>
+      <t>Investigate LINQ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12.</t>
     </r>
     <r>
       <rPr>
@@ -446,81 +377,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>FindBy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Create classes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Generate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Investigate LINQ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11.</t>
+      <t>Develop a set of UI test utils</t>
+    </r>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <r>
+      <t>13.</t>
     </r>
     <r>
       <rPr>
@@ -538,12 +403,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Gen/Dynamically define search criteria in ClassDefs for a Grid (dep 1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>12.</t>
+      <t>Study WPF, Silverlight etc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.</t>
     </r>
     <r>
       <rPr>
@@ -561,15 +426,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Develop a set of UI test utils</t>
-    </r>
-  </si>
-  <si>
-    <t>ongoing</t>
-  </si>
-  <si>
-    <r>
-      <t>13.</t>
+      <t>Define Triggers in ClassDefs (dep on 9)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16.</t>
     </r>
     <r>
       <rPr>
@@ -587,12 +449,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Study WPF, Silverlight etc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>14.</t>
+      <t>Globalisation of all error messages.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>17.</t>
     </r>
     <r>
       <rPr>
@@ -610,12 +472,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Define Triggers in ClassDefs (dep on 9)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>15.</t>
+      <t>Email error messages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18.</t>
     </r>
     <r>
       <rPr>
@@ -633,12 +495,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Mutable Composite primary key for Readonly and editable grid. Sample app using Northwind.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>16.</t>
+      <t>Have option to do an SDI interface.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19.</t>
     </r>
     <r>
       <rPr>
@@ -656,12 +518,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Globalisation of all error messages.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>17.</t>
+      <t>Allow multiple class defs for a project.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dep 25</t>
+  </si>
+  <si>
+    <r>
+      <t>22.</t>
     </r>
     <r>
       <rPr>
@@ -679,12 +544,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Email error messages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>18.</t>
+      <t>Create Display objects i.e. object that can load based on any defined SQL load (allow summing, counting and other aggregate functions) and cannot be edited. This will replace loading these through a view.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>23.</t>
     </r>
     <r>
       <rPr>
@@ -702,12 +567,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Have option to do an SDI interface.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>19.</t>
+      <t>Allow the plugging in of any Database mapping logic for both reading and writing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>24.</t>
     </r>
     <r>
       <rPr>
@@ -725,12 +590,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Allow multiple class defs for a project.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>20.</t>
+      <t>Create N-Tier Demo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>25.</t>
     </r>
     <r>
       <rPr>
@@ -748,12 +613,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Allow bulk deleting of rows in a grid.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>21.</t>
+      <t>Serialisable Business objects and collections.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>26.</t>
     </r>
     <r>
       <rPr>
@@ -771,15 +636,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Create functionality to allow the object and collection to dump its state. See Serialisable</t>
-    </r>
-  </si>
-  <si>
-    <t>Dep 25</t>
-  </si>
-  <si>
-    <r>
-      <t>22.</t>
+      <t>Compact framework investigation</t>
+    </r>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <r>
+      <t>27.</t>
     </r>
     <r>
       <rPr>
@@ -797,12 +662,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Create Display objects i.e. object that can load based on any defined SQL load (allow summing, counting and other aggregate functions) and cannot be edited. This will replace loading these through a view.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>23.</t>
+      <t>Reports (dep 22)</t>
+    </r>
+  </si>
+  <si>
+    <t>Dep 22</t>
+  </si>
+  <si>
+    <r>
+      <t>28.</t>
     </r>
     <r>
       <rPr>
@@ -820,154 +688,10 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Allow the plugging in of any Database mapping logic for both reading and writing.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>24.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Create N-Tier Demo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>25.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Serialisable Business objects and collections.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>26.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Compact framework investigation</t>
-    </r>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <r>
-      <t>27.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Reports (dep 22)</t>
-    </r>
-  </si>
-  <si>
-    <t>Dep 22</t>
-  </si>
-  <si>
-    <r>
-      <t>28.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Support generation of VB.Net code.</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>29.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Collapsible Panel</t>
-    </r>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -978,6 +702,51 @@
   </si>
   <si>
     <t>9.      Refactor Panel Factory</t>
+  </si>
+  <si>
+    <t>a.       Reverse Engineering from Database. Pluggable such that can extend to any database easily. Need to be able</t>
+  </si>
+  <si>
+    <t>6.      Generate Tests for BO’s</t>
+  </si>
+  <si>
+    <t>d.      Generate to code. Must be written such that can plug other templates into generator.</t>
+  </si>
+  <si>
+    <t>Customisation - e.g. auto create guid id property etc</t>
+  </si>
+  <si>
+    <t>Eric and Donald</t>
+  </si>
+  <si>
+    <t>Mark Dee</t>
+  </si>
+  <si>
+    <t>11.  Gen/Dynamically define search criteria in ClassDefs for a Grid (dep 1)</t>
+  </si>
+  <si>
+    <t>15.  Mutable Composite primary key for Readonly and editable grid. Sample app using Northwind.</t>
+  </si>
+  <si>
+    <t>20.  Allow bulk deleting of rows in a grid.</t>
+  </si>
+  <si>
+    <t>21.  Create functionality to allow the object and collection to dump its state. See Serialisable</t>
+  </si>
+  <si>
+    <t>29.  Collapsible Panel</t>
+  </si>
+  <si>
+    <t>8.      Generate Database Structure and manage versions of application with different databases. (dep 1)</t>
+  </si>
+  <si>
+    <t>5.      Relationships define philosophy and implement</t>
+  </si>
+  <si>
+    <t>4.      Lookups Define philosophy and rework</t>
+  </si>
+  <si>
+    <t>e.       Save the Business Model to XML instead of a database</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +923,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1202,6 +971,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1211,28 +1004,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
@@ -1533,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1548,34 +1332,34 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="17"/>
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="25"/>
       <c r="B2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A3" s="19"/>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A3" s="27"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1586,24 +1370,27 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="32.25" thickBot="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <v>4</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32.25" thickBot="1">
+      <c r="A6" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" ht="32.25" thickBot="1">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>8</v>
@@ -1612,28 +1399,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="63.75" thickBot="1">
+    <row r="7" spans="1:6" ht="63.75" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="32.25" thickBot="1">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
+      <c r="E7" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A8" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1642,24 +1429,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A9" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1">
+      <c r="E9" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1670,13 +1457,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" thickBot="1">
+    <row r="11" spans="1:6" ht="16.5" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -1685,119 +1472,122 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A12" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="E12" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
+      <c r="E12" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A13" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
         <v>12</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="18">
         <v>2</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="22">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1">
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" thickBot="1">
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="32.25" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2">
         <v>4</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="22">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32.25" thickBot="1">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
+    <row r="20" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A20" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
@@ -1805,85 +1595,85 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A21" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="21">
+      <c r="A21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="18">
         <v>4</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="18">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A26" s="3" t="s">
-        <v>27</v>
+      <c r="A26" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickBot="1">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickBot="1">
       <c r="A28" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
@@ -1896,7 +1686,7 @@
     </row>
     <row r="29" spans="1:5" ht="16.5" thickBot="1">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
@@ -1905,28 +1695,28 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="32.25" thickBot="1">
-      <c r="A30" s="3" t="s">
-        <v>32</v>
+    <row r="30" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A30" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -1937,11 +1727,11 @@
     </row>
     <row r="32" spans="1:5" ht="16.5" thickBot="1">
       <c r="A32" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="11">
         <v>1</v>
@@ -1952,7 +1742,7 @@
     </row>
     <row r="33" spans="1:5" ht="16.5" thickBot="1">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
@@ -1965,74 +1755,74 @@
     </row>
     <row r="34" spans="1:5" ht="16.5" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="20">
+      <c r="E34" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A35" s="3" t="s">
-        <v>37</v>
+      <c r="A35" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="32.25" thickBot="1">
-      <c r="A36" s="3" t="s">
-        <v>38</v>
+      <c r="E35" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A36" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="48" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2">
         <v>3</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2">
         <v>4</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickBot="1">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="2"/>
@@ -2040,16 +1830,16 @@
         <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickBot="1">
       <c r="A40" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -2060,18 +1850,18 @@
     </row>
     <row r="41" spans="1:5" ht="16.5" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="2"/>
@@ -2079,16 +1869,16 @@
         <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -2098,8 +1888,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A44" s="3" t="s">
-        <v>49</v>
+      <c r="A44" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="2"/>
@@ -2112,7 +1902,7 @@
     </row>
     <row r="45" spans="1:5" ht="16.5" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="2"/>
@@ -2124,16 +1914,21 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A46" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24">
+      <c r="A46" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21">
         <v>1</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="21">
         <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75">
+      <c r="A47" s="32" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>Started W/out peter</t>
   </si>
@@ -747,6 +747,24 @@
   </si>
   <si>
     <t>e.       Save the Business Model to XML instead of a database</t>
+  </si>
+  <si>
+    <t>DB4O - Finalise Cascade Delete and Cascade Deref and Client Server</t>
+  </si>
+  <si>
+    <t>Profile Habanero</t>
+  </si>
+  <si>
+    <t>svk - Mark</t>
+  </si>
+  <si>
+    <t>Deploy Habanero V3.3</t>
+  </si>
+  <si>
+    <t>Make LGMIS pluggable s.t. can use it for Firestarter</t>
+  </si>
+  <si>
+    <t>TreeView Controller to VWG</t>
   </si>
 </sst>
 </file>
@@ -923,7 +941,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -995,6 +1013,21 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1004,21 +1037,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
@@ -1317,15 +1339,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="79.85546875" customWidth="1"/>
+    <col min="1" max="1" width="102.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1336,14 +1358,14 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15.75">
-      <c r="A2" s="25"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1351,10 +1373,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A3" s="27"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1371,10 +1393,10 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18">
         <v>4</v>
@@ -1415,7 +1437,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="15"/>
@@ -1428,9 +1450,12 @@
       <c r="E8" s="9">
         <v>8</v>
       </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="15"/>
@@ -1499,7 +1524,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="27" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="24"/>
@@ -1586,7 +1611,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="4"/>
@@ -1614,9 +1639,9 @@
         <v>16</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30">
         <v>7</v>
       </c>
     </row>
@@ -1625,27 +1650,27 @@
         <v>17</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickBot="1">
       <c r="A26" s="23" t="s">
@@ -1927,8 +1952,38 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="29" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="34" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>Started W/out peter</t>
   </si>
@@ -758,13 +758,46 @@
     <t>svk - Mark</t>
   </si>
   <si>
-    <t>Deploy Habanero V3.3</t>
-  </si>
-  <si>
     <t>Make LGMIS pluggable s.t. can use it for Firestarter</t>
   </si>
   <si>
     <t>TreeView Controller to VWG</t>
+  </si>
+  <si>
+    <t>Conversion of Types.</t>
+  </si>
+  <si>
+    <t>Deploy Habanero V2.3</t>
+  </si>
+  <si>
+    <t>Collapsible Menu in Windows</t>
+  </si>
+  <si>
+    <t>Support Dual Databases</t>
+  </si>
+  <si>
+    <t>Reverse Engineer from Firestarter.</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Suri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sherwin </t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>Hageshen</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
+    <t>sherwin</t>
   </si>
 </sst>
 </file>
@@ -1339,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1354,10 +1387,10 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="30"/>
       <c r="B2" s="13" t="s">
         <v>38</v>
@@ -1372,7 +1405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
       <c r="A3" s="32"/>
       <c r="B3" s="14"/>
       <c r="C3" s="32"/>
@@ -1381,7 +1414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1425,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="30.75" thickBot="1">
+    <row r="5" spans="1:7" ht="30.75" thickBot="1">
       <c r="A5" s="28" t="s">
         <v>42</v>
       </c>
@@ -1405,8 +1438,11 @@
       <c r="F5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="32.25" thickBot="1">
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32.25" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1421,7 +1457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="63.75" thickBot="1">
+    <row r="7" spans="1:7" ht="63.75" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1436,7 +1472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30.75" thickBot="1">
+    <row r="8" spans="1:7" ht="30.75" thickBot="1">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -1454,7 +1490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1">
       <c r="A9" s="25" t="s">
         <v>56</v>
       </c>
@@ -1469,7 +1505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1482,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1497,7 +1533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="23" t="s">
         <v>55</v>
       </c>
@@ -1510,7 +1546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1">
       <c r="A13" s="23" t="s">
         <v>54</v>
       </c>
@@ -1523,7 +1559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="27" t="s">
         <v>43</v>
       </c>
@@ -1541,7 +1577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1550,7 +1586,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +1646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30.75" thickBot="1">
+    <row r="20" spans="1:5" ht="16.5" thickBot="1">
       <c r="A20" s="27" t="s">
         <v>53</v>
       </c>
@@ -1765,7 +1801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" thickBot="1">
+    <row r="33" spans="1:9" ht="16.5" thickBot="1">
       <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
@@ -1778,7 +1814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" thickBot="1">
+    <row r="34" spans="1:9" ht="16.5" thickBot="1">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
@@ -1789,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.5" thickBot="1">
+    <row r="35" spans="1:9" ht="16.5" thickBot="1">
       <c r="A35" s="23" t="s">
         <v>50</v>
       </c>
@@ -1804,7 +1840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30.75" thickBot="1">
+    <row r="36" spans="1:9" ht="30.75" thickBot="1">
       <c r="A36" s="23" t="s">
         <v>51</v>
       </c>
@@ -1819,7 +1855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="48" thickBot="1">
+    <row r="37" spans="1:9" ht="48" thickBot="1">
       <c r="A37" s="3" t="s">
         <v>29</v>
       </c>
@@ -1832,7 +1868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" thickBot="1">
+    <row r="38" spans="1:9" ht="16.5" thickBot="1">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
@@ -1845,7 +1881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" thickBot="1">
+    <row r="39" spans="1:9" ht="16.5" thickBot="1">
       <c r="A39" s="3" t="s">
         <v>31</v>
       </c>
@@ -1858,7 +1894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" thickBot="1">
+    <row r="40" spans="1:9" ht="16.5" thickBot="1">
       <c r="A40" s="10" t="s">
         <v>32</v>
       </c>
@@ -1873,7 +1909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5" thickBot="1">
+    <row r="41" spans="1:9" ht="16.5" thickBot="1">
       <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
@@ -1884,7 +1920,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="16.5" thickBot="1">
+    <row r="42" spans="1:9" ht="16.5" thickBot="1">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
@@ -1897,7 +1933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" thickBot="1">
+    <row r="43" spans="1:9" ht="16.5" thickBot="1">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -1912,7 +1948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.5" thickBot="1">
+    <row r="44" spans="1:9" ht="16.5" thickBot="1">
       <c r="A44" s="23" t="s">
         <v>52</v>
       </c>
@@ -1925,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" thickBot="1">
+    <row r="45" spans="1:9" ht="16.5" thickBot="1">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -1938,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1">
       <c r="A46" s="19" t="s">
         <v>40</v>
       </c>
@@ -1951,39 +1987,84 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75">
+    <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="F48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="34" t="s">
+      <c r="F52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="34" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="34" t="s">
-        <v>62</v>
+      <c r="F53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
   <si>
     <t>Started W/out peter</t>
   </si>
@@ -752,9 +752,6 @@
     <t>DB4O - Finalise Cascade Delete and Cascade Deref and Client Server</t>
   </si>
   <si>
-    <t>Profile Habanero</t>
-  </si>
-  <si>
     <t>svk - Mark</t>
   </si>
   <si>
@@ -798,13 +795,109 @@
   </si>
   <si>
     <t>sherwin</t>
+  </si>
+  <si>
+    <t>Finalise Decision on JHB guys 2 day</t>
+  </si>
+  <si>
+    <t>FS Modeller</t>
+  </si>
+  <si>
+    <t>Set Relationships via Grid etc.</t>
+  </si>
+  <si>
+    <t>Testing -- Generating Tests</t>
+  </si>
+  <si>
+    <t>Profile Habanero - Constructing Business Objects</t>
+  </si>
+  <si>
+    <t>BOProp Validators</t>
+  </si>
+  <si>
+    <t>BOValidators</t>
+  </si>
+  <si>
+    <t>Security for BOPRop- E.g.</t>
+  </si>
+  <si>
+    <t>Security for BO</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Articles</t>
+  </si>
+  <si>
+    <t>- Arcticle for Mark</t>
+  </si>
+  <si>
+    <t>- Memory Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t>Redo tutorials etc with new Habanero.</t>
+  </si>
+  <si>
+    <t>Reorganise TestPacks etc in Habanero.</t>
+  </si>
+  <si>
+    <t>Reorganise Tests for Habanero - s.t. Easier to maintain.</t>
+  </si>
+  <si>
+    <t>Integrate Error Form stuff.</t>
+  </si>
+  <si>
+    <t>Training - For Developer - Sharepoint</t>
+  </si>
+  <si>
+    <t>Developers researching and presenting</t>
+  </si>
+  <si>
+    <t>Daily - Each day one developer presents.</t>
+  </si>
+  <si>
+    <t>Dynamic Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Frameworks </t>
+  </si>
+  <si>
+    <t>Other Open Source projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habanero 2.2 - Relationships - </t>
+  </si>
+  <si>
+    <t>Agile - Developement</t>
+  </si>
+  <si>
+    <t>Test Driven Development</t>
+  </si>
+  <si>
+    <t>Mock - New syntax</t>
+  </si>
+  <si>
+    <t>in branch</t>
+  </si>
+  <si>
+    <t>code review and do</t>
+  </si>
+  <si>
+    <t>Cancel Edits M:M</t>
+  </si>
+  <si>
+    <t>InsertOrdering - When have Many to many</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,6 +941,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -974,7 +1073,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1061,6 +1160,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1070,10 +1172,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
@@ -1372,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48:G48"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1391,14 +1492,14 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="30"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1406,10 +1507,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="32"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1439,7 +1540,7 @@
         <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32.25" thickBot="1">
@@ -1457,7 +1558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="63.75" thickBot="1">
+    <row r="7" spans="1:7" ht="48" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1472,7 +1573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30.75" thickBot="1">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -1675,9 +1776,9 @@
         <v>16</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31">
         <v>7</v>
       </c>
     </row>
@@ -1686,27 +1787,27 @@
         <v>17</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickBot="1">
       <c r="A26" s="23" t="s">
@@ -1756,7 +1857,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30.75" thickBot="1">
+    <row r="30" spans="1:5" ht="16.5" thickBot="1">
       <c r="A30" s="23" t="s">
         <v>49</v>
       </c>
@@ -1840,7 +1941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30.75" thickBot="1">
+    <row r="36" spans="1:9" ht="16.5" thickBot="1">
       <c r="A36" s="23" t="s">
         <v>51</v>
       </c>
@@ -1855,7 +1956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="48" thickBot="1">
+    <row r="37" spans="1:9" ht="32.25" thickBot="1">
       <c r="A37" s="3" t="s">
         <v>29</v>
       </c>
@@ -1992,79 +2093,232 @@
         <v>45</v>
       </c>
       <c r="I47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" t="s">
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="I52" t="s">
         <v>71</v>
       </c>
-      <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="34" t="s">
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
         <v>59</v>
       </c>
-      <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="34" t="s">
+      <c r="F53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
         <v>63</v>
       </c>
-      <c r="I51" t="s">
+      <c r="F55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" t="s">
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="34" t="s">
-        <v>66</v>
+    <row r="59" spans="1:9">
+      <c r="A59" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
   <si>
     <t>Started W/out peter</t>
   </si>
@@ -891,6 +891,15 @@
   </si>
   <si>
     <t>InsertOrdering - When have Many to many</t>
+  </si>
+  <si>
+    <t>Nice to have from Use Case Manager</t>
+  </si>
+  <si>
+    <t>DataStoreInMemory saves to .xml in addition to .dat</t>
+  </si>
+  <si>
+    <t>Percentage defined width property on UI Grids so that columns will fit to screen (like table width in html)</t>
   </si>
 </sst>
 </file>
@@ -1163,18 +1172,18 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
@@ -1473,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1492,14 +1501,14 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="31"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1507,10 +1516,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="33"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1776,9 +1785,9 @@
         <v>16</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34">
         <v>7</v>
       </c>
     </row>
@@ -1787,27 +1796,27 @@
         <v>17</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickBot="1">
       <c r="A26" s="23" t="s">
@@ -2172,52 +2181,52 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="31" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="31" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="31" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="31" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="31" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="31" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2227,27 +2236,27 @@
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="31" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="32" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="33" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="32" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2319,6 +2328,21 @@
     <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
   <si>
     <t>Started W/out peter</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t>InsertOrdering - When have Many to many</t>
+  </si>
+  <si>
+    <t>Support Structure</t>
   </si>
   <si>
     <t>Nice to have from Use Case Manager</t>
@@ -1484,13 +1487,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="102.5703125" customWidth="1"/>
+    <col min="1" max="1" width="113.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1535,7 +1538,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="30.75" thickBot="1">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="A5" s="28" t="s">
         <v>42</v>
       </c>
@@ -2330,19 +2333,24 @@
         <v>100</v>
       </c>
     </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PriorityList.xlsx
+++ b/docs/PriorityList.xlsx
@@ -797,9 +797,6 @@
     <t>sherwin</t>
   </si>
   <si>
-    <t>Finalise Decision on JHB guys 2 day</t>
-  </si>
-  <si>
     <t>FS Modeller</t>
   </si>
   <si>
@@ -903,6 +900,9 @@
   </si>
   <si>
     <t>Percentage defined width property on UI Grids so that columns will fit to screen (like table width in html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric wil do </t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1085,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1187,6 +1187,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
@@ -1485,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:A91"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2124,7 +2125,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s">
         <v>69</v>
@@ -2152,7 +2153,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" t="s">
+      <c r="A54" s="37" t="s">
         <v>60</v>
       </c>
       <c r="F54" t="s">
@@ -2160,7 +2161,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" t="s">
+      <c r="A55" s="37" t="s">
         <v>63</v>
       </c>
       <c r="F55" t="s">
@@ -2172,10 +2173,10 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
         <v>101</v>
-      </c>
-      <c r="C56" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2190,7 +2191,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="31" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2200,42 +2201,45 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="31" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="31" t="s">
         <v>75</v>
       </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="31" t="s">
-        <v>76</v>
+      <c r="A63" s="37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="31" t="s">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="31" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -2244,22 +2248,22 @@
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="32" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="33" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="32" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="32" t="s">
+      <c r="A73" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2330,7 +2334,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -2346,11 +2350,6 @@
     <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
